--- a/biology/Zoologie/Brassolis/Brassolis.xlsx
+++ b/biology/Zoologie/Brassolis/Brassolis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Brassolis  est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae, de la tribu des Brassolini, de la sous-tribu des Brassolina.
 </t>
@@ -511,12 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Brassolis a été décrit par l'entomologiste danois Johan Christian Fabricius en 1807[1].
-L’espèce type est Brassolis sophorae Linnaeus.
-Synonyme
-Le terme Brassolis (Illiger, 1807) est un synonyme du genre Morpho.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Brassolis a été décrit par l'entomologiste danois Johan Christian Fabricius en 1807.
+L’espèce type est Brassolis sophorae Linnaeus.</t>
         </is>
       </c>
     </row>
@@ -541,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des espèces
-Brassolis astyra (Godart, 1824)[2]
-Brassolis sophorae (Linnaeus, 1758)[3]
-Brassolis isthmia (Bates, 1864)[4]
-Brassolis haenschi (Stichel, 1902)[5]
-			Brassolis sophorae - Muséum de Toulouse
-</t>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le terme Brassolis (Illiger, 1807) est un synonyme du genre Morpho.</t>
         </is>
       </c>
     </row>
@@ -577,10 +589,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
+Brassolis astyra (Godart, 1824)
+Brassolis sophorae (Linnaeus, 1758)
+Brassolis isthmia (Bates, 1864)
+Brassolis haenschi (Stichel, 1902)
+			Brassolis sophorae - Muséum de Toulouse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brassolis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassolis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Amérique du Sud.
 </t>
